--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Rankings/estadisticos_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Rankings/estadisticos_No_Lineal_Estacionario_SETAR.xlsx
@@ -55,19 +55,19 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>EnCQR-LSTM</t>
+  </si>
+  <si>
+    <t>AREPD</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
   </si>
   <si>
-    <t>AREPD</t>
-  </si>
-  <si>
     <t>MCPS</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
   </si>
 </sst>
 </file>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.6332213953123457</v>
+        <v>0.6089098619418625</v>
       </c>
       <c r="C2">
-        <v>0.5368337702897217</v>
+        <v>0.536264121085388</v>
       </c>
       <c r="D2">
-        <v>0.4128178391142987</v>
+        <v>0.3590681493921384</v>
       </c>
       <c r="E2">
-        <v>0.6519328660881244</v>
+        <v>0.5896901525737179</v>
       </c>
       <c r="F2">
-        <v>0.2221143979726497</v>
+        <v>0.219590273003482</v>
       </c>
       <c r="G2">
-        <v>4.093050722142525</v>
+        <v>4.051455603786365</v>
       </c>
       <c r="H2">
-        <v>0.3810765446243998</v>
+        <v>0.3691066132838228</v>
       </c>
       <c r="I2">
-        <v>0.9050079034307931</v>
+        <v>0.9139243708895839</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.6444787228878719</v>
+        <v>0.6191905794636839</v>
       </c>
       <c r="C3">
-        <v>0.5558950519719668</v>
+        <v>0.5367584373836027</v>
       </c>
       <c r="D3">
-        <v>0.3887875454690213</v>
+        <v>0.3828727321318938</v>
       </c>
       <c r="E3">
-        <v>0.6032589310736075</v>
+        <v>0.6183439232288088</v>
       </c>
       <c r="F3">
-        <v>0.2272875630880241</v>
+        <v>0.2085533403788042</v>
       </c>
       <c r="G3">
-        <v>3.349188910469255</v>
+        <v>5.151485553912396</v>
       </c>
       <c r="H3">
-        <v>0.3840799539725551</v>
+        <v>0.3692945250842233</v>
       </c>
       <c r="I3">
-        <v>0.9241676744332588</v>
+        <v>0.9100125695706947</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.6667156546733405</v>
+        <v>0.6351069657946222</v>
       </c>
       <c r="C4">
-        <v>0.5521426650794161</v>
+        <v>0.5473775973851892</v>
       </c>
       <c r="D4">
-        <v>0.403580062216813</v>
+        <v>0.3876696191875261</v>
       </c>
       <c r="E4">
-        <v>0.6053256127824812</v>
+        <v>0.6104005152934959</v>
       </c>
       <c r="F4">
-        <v>0.2135499504519238</v>
+        <v>0.2173839969138875</v>
       </c>
       <c r="G4">
-        <v>3.015282614785772</v>
+        <v>3.359960345850884</v>
       </c>
       <c r="H4">
-        <v>0.3851612891837405</v>
+        <v>0.3757380360641987</v>
       </c>
       <c r="I4">
-        <v>0.9455221913134675</v>
+        <v>0.9206560657606992</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.6985621160566644</v>
+        <v>0.6607461638369755</v>
       </c>
       <c r="C5">
-        <v>0.5630323989557324</v>
+        <v>0.5508703588972157</v>
       </c>
       <c r="D5">
-        <v>0.4710896452568361</v>
+        <v>0.449251697998672</v>
       </c>
       <c r="E5">
-        <v>0.6743704452742229</v>
+        <v>0.6799157113373948</v>
       </c>
       <c r="F5">
-        <v>0.2191825191621221</v>
+        <v>0.216209754269449</v>
       </c>
       <c r="G5">
-        <v>3.869480711299317</v>
+        <v>5.205200791628045</v>
       </c>
       <c r="H5">
-        <v>0.3909179838779787</v>
+        <v>0.3753094109453436</v>
       </c>
       <c r="I5">
-        <v>0.9577846883465462</v>
+        <v>0.9359107052880594</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.7101747710954442</v>
+        <v>0.6666635774630232</v>
       </c>
       <c r="C6">
-        <v>0.6070953881563319</v>
+        <v>0.5529137447025512</v>
       </c>
       <c r="D6">
-        <v>0.4275335478963295</v>
+        <v>0.4503902036775377</v>
       </c>
       <c r="E6">
-        <v>0.6020117375288611</v>
+        <v>0.6755884360616938</v>
       </c>
       <c r="F6">
-        <v>0.236912185608566</v>
+        <v>0.2157188706214091</v>
       </c>
       <c r="G6">
-        <v>3.403271161216</v>
+        <v>5.582777872686909</v>
       </c>
       <c r="H6">
-        <v>0.4006883317974357</v>
+        <v>0.3796897610513402</v>
       </c>
       <c r="I6">
-        <v>1.001388212688949</v>
+        <v>0.9398717783327897</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.7115839334031406</v>
+        <v>0.6730784396565838</v>
       </c>
       <c r="C7">
-        <v>0.5803796488168693</v>
+        <v>0.5624710249788976</v>
       </c>
       <c r="D7">
-        <v>0.4300537626826145</v>
+        <v>0.4249032717392941</v>
       </c>
       <c r="E7">
-        <v>0.6043612601339776</v>
+        <v>0.6312834384593972</v>
       </c>
       <c r="F7">
-        <v>0.2318685563517967</v>
+        <v>0.2172411119999908</v>
       </c>
       <c r="G7">
-        <v>2.912319102009057</v>
+        <v>4.416155898882661</v>
       </c>
       <c r="H7">
-        <v>0.4140047911130793</v>
+        <v>0.3854562851497111</v>
       </c>
       <c r="I7">
-        <v>0.990340729227714</v>
+        <v>0.9488351303983502</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.7229425387064897</v>
+        <v>0.6816002404638436</v>
       </c>
       <c r="C8">
-        <v>0.6077422081105921</v>
+        <v>0.5727810425965243</v>
       </c>
       <c r="D8">
-        <v>0.4317273113712916</v>
+        <v>0.425401660445699</v>
       </c>
       <c r="E8">
-        <v>0.5971806723999821</v>
+        <v>0.6241219342237967</v>
       </c>
       <c r="F8">
-        <v>0.2341623774278025</v>
+        <v>0.2160962634594784</v>
       </c>
       <c r="G8">
-        <v>3.734935868922371</v>
+        <v>3.548356736930968</v>
       </c>
       <c r="H8">
-        <v>0.4084947281482555</v>
+        <v>0.3872573171066023</v>
       </c>
       <c r="I8">
-        <v>1.021115412740633</v>
+        <v>0.9703645970236452</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.7242634814566836</v>
+        <v>0.6948030281436006</v>
       </c>
       <c r="C9">
-        <v>0.579054941283619</v>
+        <v>0.5851812818236921</v>
       </c>
       <c r="D9">
-        <v>0.476491643935044</v>
+        <v>0.4156749021688754</v>
       </c>
       <c r="E9">
-        <v>0.6578982043616151</v>
+        <v>0.5982629397564521</v>
       </c>
       <c r="F9">
-        <v>0.2271320449503537</v>
+        <v>0.2204823947260793</v>
       </c>
       <c r="G9">
-        <v>3.725227186610246</v>
+        <v>4.284647106913935</v>
       </c>
       <c r="H9">
-        <v>0.4036064790627755</v>
+        <v>0.3996856739836541</v>
       </c>
       <c r="I9">
-        <v>0.9813823033506444</v>
+        <v>0.9996279955602436</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.9144369121101344</v>
+        <v>0.7057097965912592</v>
       </c>
       <c r="C10">
-        <v>0.7857329889566929</v>
+        <v>0.5915478967351736</v>
       </c>
       <c r="D10">
-        <v>0.5069291175961209</v>
+        <v>0.4409548530557585</v>
       </c>
       <c r="E10">
-        <v>0.554362046066516</v>
+        <v>0.6248387866877745</v>
       </c>
       <c r="F10">
-        <v>0.3215882154285629</v>
+        <v>0.2310044930589319</v>
       </c>
       <c r="G10">
-        <v>3.11179962650514</v>
+        <v>5.800844972048748</v>
       </c>
       <c r="H10">
-        <v>0.5238542259635149</v>
+        <v>0.4055617892278399</v>
       </c>
       <c r="I10">
-        <v>1.257331750651575</v>
+        <v>1.005179303246682</v>
       </c>
     </row>
   </sheetData>
